--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/Guillotine/Guillotine.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/Guillotine/Guillotine.xlsx
@@ -393,12 +393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -431,6 +425,12 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,19 +727,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="68.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="68.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" thickBot="1">
@@ -747,364 +747,364 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="63" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="16" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="22"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="16" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16" t="s">
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="12"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="29" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="32"/>
+      <c r="A22" s="30"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="32"/>
+      <c r="A23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/Guillotine/Guillotine.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/Guillotine/Guillotine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="60" yWindow="90" windowWidth="10095" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Guillotine" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>Data For Guillotine Add/Edit(Update)</t>
   </si>
@@ -30,31 +30,12 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>Guilotine</t>
-  </si>
-  <si>
     <t>Ideal EBA 480EP</t>
   </si>
   <si>
     <t>description:</t>
   </si>
   <si>
-    <t>two automatic front-loading roll feeds
-smart roll switching
-sheet feed
-Output: integrated output stacking tray (from A4/A to A0/E, with up to 50 A1/D-size capacity)
-media bin
-automatic cutter
-Scanner: straight-through scan paper path for sheet and cardboard originals</t>
-  </si>
-  <si>
-    <t>Two automatic roll feeds
-smart roll-switching
-sheet feed
-media output bin
-automatic cutter (cuts all media except canvas and banners)</t>
-  </si>
-  <si>
     <t>Paper/Stock Feed Restrictions</t>
   </si>
   <si>
@@ -64,33 +45,21 @@
     <t>Height</t>
   </si>
   <si>
-    <t>720.00</t>
-  </si>
-  <si>
     <t>45.26</t>
   </si>
   <si>
     <t>Width</t>
   </si>
   <si>
-    <t>1020.00</t>
-  </si>
-  <si>
     <t>24.12</t>
   </si>
   <si>
     <t>Maximum Sheet Size for the Plant</t>
   </si>
   <si>
-    <t>297.00</t>
-  </si>
-  <si>
     <t>35.16</t>
   </si>
   <si>
-    <t>210.00</t>
-  </si>
-  <si>
     <t>96.24</t>
   </si>
   <si>
@@ -109,9 +78,6 @@
     <t>Set Up Charge ($)</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>2.36</t>
   </si>
   <si>
@@ -145,9 +111,6 @@
     <t>Markup (%)</t>
   </si>
   <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>1.23</t>
   </si>
   <si>
@@ -200,6 +163,30 @@
   </si>
   <si>
     <t>2.12</t>
+  </si>
+  <si>
+    <t>841.00</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dont Delete Dont Edit - Data Linked to Other Modules </t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>1189.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>Guillotine</t>
   </si>
 </sst>
 </file>
@@ -727,15 +714,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="68.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -764,35 +751,33 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="63" customHeight="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="14"/>
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="16"/>
@@ -804,18 +789,18 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
@@ -823,33 +808,33 @@
     <row r="6" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
@@ -857,38 +842,38 @@
     <row r="8" spans="1:8">
       <c r="A8" s="10"/>
       <c r="B8" s="18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="16"/>
@@ -900,50 +885,50 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="19" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
@@ -951,54 +936,54 @@
     <row r="14" spans="1:8">
       <c r="A14" s="20"/>
       <c r="B14" s="18" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="19" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="14" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="19" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="21"/>
@@ -1010,94 +995,94 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10"/>
       <c r="B19" s="2"/>
       <c r="C19" s="19" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="27" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8">

--- a/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/Guillotine/Guillotine.xlsx
+++ b/src/com/eprint/testData/Settings/EprintMIS/PlantsAndPresses/Guillotine/Guillotine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Data For Guillotine Add/Edit(Update)</t>
   </si>
@@ -180,13 +180,10 @@
     <t>1189.00</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t>1.00</t>
   </si>
   <si>
-    <t>Guillotine</t>
+    <t>Guilotine</t>
   </si>
 </sst>
 </file>
@@ -714,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -751,7 +748,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -955,7 +952,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -971,7 +968,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
